--- a/bin/com/excel/TestSuiteList.xlsx
+++ b/bin/com/excel/TestSuiteList.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
